--- a/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
+++ b/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROPI\Downloads\carePet\arquivosMySQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Artefatos / Documentos</t>
   </si>
@@ -203,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,18 +633,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -681,7 +717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,9 +750,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,6 +802,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -928,7 +998,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,21 +1240,31 @@
       <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B23" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>23</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">

--- a/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
+++ b/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Artefatos / Documentos</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>FEITO</t>
+  </si>
+  <si>
+    <t>fazer</t>
+  </si>
+  <si>
+    <t>meio FEITO</t>
+  </si>
+  <si>
+    <t>90% FEITO</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1007,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,9 +1079,14 @@
       <c r="C5" s="32" t="s">
         <v>55</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="25" t="s">
         <v>49</v>
       </c>
@@ -1092,6 +1106,9 @@
       </c>
       <c r="C7" s="33" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,6 +1128,9 @@
       <c r="C9" s="35" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1122,6 +1142,9 @@
       <c r="C10" s="36" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -1133,6 +1156,9 @@
       <c r="C11" s="36" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -1143,6 +1169,9 @@
       </c>
       <c r="C12" s="36" t="s">
         <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,6 +1202,9 @@
       <c r="C15" s="32" t="s">
         <v>57</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -1182,6 +1214,9 @@
       <c r="C16" s="34" t="s">
         <v>36</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
@@ -1200,6 +1235,9 @@
       <c r="C18" s="32" t="s">
         <v>53</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
@@ -1218,6 +1256,9 @@
       <c r="C20" s="32" t="s">
         <v>48</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
@@ -1331,7 +1372,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>13</v>
       </c>
@@ -1340,7 +1381,7 @@
       </c>
       <c r="C33" s="37"/>
     </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="28" t="s">
         <v>44</v>
@@ -1348,38 +1389,41 @@
       <c r="C34" s="32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
   </sheetData>

--- a/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
+++ b/arquivosMySQL/02_Diretrizes_Projeto_Implementacao_PETSHOP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Artefatos / Documentos</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Verifica se um produto solicitado, pode ser atendido e, se for, atualizar sua quantidade em estoque</t>
-  </si>
-  <si>
-    <t>1. Atualizar a quantidade de itens de Produtos no estoque</t>
   </si>
   <si>
     <t>Descrição  ( os números dos slides são referentes ao slides da última aula)</t>
@@ -166,9 +163,6 @@
     <t>Cadastro Simples (Operações CRUD) de CLIENTE. Relacionar o CLIENTE  com seus ANIMAIS</t>
   </si>
   <si>
-    <t>para atualizar o atributo derivado (qtd_atual) da tabela INSTANCIA_PRODUTO</t>
-  </si>
-  <si>
     <t>3. Cadastro de CLIENTE E seus  ANIMAIS</t>
   </si>
   <si>
@@ -199,19 +193,55 @@
     <t>1.  Cadastro de AGENDAMENTO de consulta CLINICA</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>FEITO</t>
-  </si>
-  <si>
-    <t>fazer</t>
-  </si>
-  <si>
-    <t>meio FEITO</t>
-  </si>
-  <si>
-    <t>90% FEITO</t>
+    <t>don</t>
+  </si>
+  <si>
+    <t>TelaLogin.java</t>
+  </si>
+  <si>
+    <t>TelaAgendamento.java linha 518</t>
+  </si>
+  <si>
+    <t>TelaCadastro.java linha 282 e TelaCadastroAnimal.java linha 343</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 50</t>
+  </si>
+  <si>
+    <t>TelaAgendamento.java linha 518 e DDL Script.sql linha 50</t>
+  </si>
+  <si>
+    <t>TelaLogin.java linha 131 e DDL Script 237</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 193</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 27</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 129</t>
+  </si>
+  <si>
+    <t>1. Conflito de horario</t>
+  </si>
+  <si>
+    <t>Conflito de horario</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 106</t>
+  </si>
+  <si>
+    <t>DDL Script.sql linha 210</t>
+  </si>
+  <si>
+    <t>TelaLogin.java, TelaFuncionario.java, TelaUsuario.java</t>
+  </si>
+  <si>
+    <t>TelaListaAgendamento.java</t>
+  </si>
+  <si>
+    <t>Reportcarepet.rptdesign</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1037,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,10 +1053,10 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>8</v>
@@ -1058,9 +1088,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
@@ -1068,30 +1096,28 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>60</v>
@@ -1107,16 +1133,16 @@
       <c r="C7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="34"/>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -1128,9 +1154,6 @@
       <c r="C9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1142,9 +1165,6 @@
       <c r="C10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -1156,9 +1176,6 @@
       <c r="C11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -1168,10 +1185,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,10 +1214,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1215,7 +1229,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,13 +1244,13 @@
     <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1251,13 +1265,13 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1268,7 +1282,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1281,22 +1298,17 @@
       <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>30</v>
@@ -1305,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,6 +1328,9 @@
       <c r="C25" s="32" t="s">
         <v>1</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
@@ -1336,9 +1351,12 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="34"/>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
@@ -1350,9 +1368,12 @@
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="34"/>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
@@ -1365,10 +1386,13 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>43</v>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -1384,13 +1408,13 @@
     <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
